--- a/US/data/BOC/APEP/POPT/Civilian Population.xlsx
+++ b/US/data/BOC/APEP/POPT/Civilian Population.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\BOC\APEP\POPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github\US\US\data\BOC\APEP\POPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27AEF3-584A-40AF-A4D6-43F17C8D7D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB42BD4-EAE3-473B-9447-A70A700E8DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,18 +17,10 @@
     <sheet name="Male" sheetId="2" r:id="rId2"/>
     <sheet name="Female" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>

--- a/US/data/BOC/APEP/POPT/Civilian Population.xlsx
+++ b/US/data/BOC/APEP/POPT/Civilian Population.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Github\US\US\data\BOC\APEP\POPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB42BD4-EAE3-473B-9447-A70A700E8DDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13634A0A-E63D-42AC-9FAF-6F3174522AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20226,6 +20226,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39418,6 +39419,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
